--- a/medicine/Pharmacie/Lucie_Vellère/Lucie_Vellère.xlsx
+++ b/medicine/Pharmacie/Lucie_Vellère/Lucie_Vellère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucie_Vell%C3%A8re</t>
+          <t>Lucie_Vellère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucie Vellère (23 décembre 1896 — 12 octobre 1966) est une compositrice belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucie_Vell%C3%A8re</t>
+          <t>Lucie_Vellère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucie Vellère est née à Bruxelles en 1896. Elle commença les leçons de piano avec son père à l'âge de six ans. Elle étudia le violon avec Emile Chaumont, l'harmonie avec Paul Miry et la composition avec Joseph Jongen. Elle reçut en 1957 le Prix du Brabant et reçut un prix de l'American Section of the International Council for Women pour ses compositions[1]. Elle était pharmacienne et composait durant ses loisirs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucie Vellère est née à Bruxelles en 1896. Elle commença les leçons de piano avec son père à l'âge de six ans. Elle étudia le violon avec Emile Chaumont, l'harmonie avec Paul Miry et la composition avec Joseph Jongen. Elle reçut en 1957 le Prix du Brabant et reçut un prix de l'American Section of the International Council for Women pour ses compositions. Elle était pharmacienne et composait durant ses loisirs.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucie_Vell%C3%A8re</t>
+          <t>Lucie_Vellère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vellère composa pour voix, instruments solos, chœur et orchestre et ensemble de chambre dans un style traditionnel.
 Chanson nocturne (pour violon et piano) 1920
@@ -563,9 +579,43 @@
 Quatuor (pour quatre clarinettes) 1963
 Epitaphe pour un ami pour alto et orchestre à cordes 1964
 Quatuor (pour flûte, hautbois, clarinette et basson)	1964
-Deux essais (pour trompette, cor et trombone) 1965[3]
-Discographie
-Quatuor à Cordes No. 3, Leonarda CD #LE336
+Deux essais (pour trompette, cor et trombone) 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lucie_Vellère</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucie_Vell%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Quatuor à Cordes No. 3, Leonarda CD #LE336
 Vive la Différence: String Quartets by 5 Women from 3 Continents, Leonarda CD (1997)</t>
         </is>
       </c>
